--- a/data.xlsx
+++ b/data.xlsx
@@ -3,16 +3,18 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10719"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF98C0D6-616F-5040-9AEA-84A86F0255C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1003E388-F5D3-0E49-9CC2-FEAA146DEAF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4260" yWindow="500" windowWidth="26540" windowHeight="17360" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mh data" sheetId="1" r:id="rId1"/>
     <sheet name="dcm_A_8node" sheetId="4" r:id="rId2"/>
     <sheet name="reg_input_limitedconns" sheetId="3" r:id="rId3"/>
-    <sheet name="reg_input_mhonly" sheetId="7" r:id="rId4"/>
-    <sheet name="reg_input_allconns" sheetId="6" r:id="rId5"/>
+    <sheet name="reg_input_allconns_4node" sheetId="9" r:id="rId4"/>
+    <sheet name="reg_input_limitedconns_4node" sheetId="10" r:id="rId5"/>
+    <sheet name="reg_input_mhonly" sheetId="7" r:id="rId6"/>
+    <sheet name="reg_input_allconns" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="151">
   <si>
     <t>Group</t>
   </si>
@@ -453,6 +455,42 @@
   </si>
   <si>
     <t>group</t>
+  </si>
+  <si>
+    <t>Amy-Amy</t>
+  </si>
+  <si>
+    <t>Amy-FFA</t>
+  </si>
+  <si>
+    <t>Amy-mOFC</t>
+  </si>
+  <si>
+    <t>Amy-Pul</t>
+  </si>
+  <si>
+    <t>FFA-Amy</t>
+  </si>
+  <si>
+    <t>FFA-FFA</t>
+  </si>
+  <si>
+    <t>FFA-Pul</t>
+  </si>
+  <si>
+    <t>mOFC-Amy</t>
+  </si>
+  <si>
+    <t>mOFC-mOFC</t>
+  </si>
+  <si>
+    <t>Pul-Amy</t>
+  </si>
+  <si>
+    <t>Pul-FFA</t>
+  </si>
+  <si>
+    <t>Pul-Pul</t>
   </si>
 </sst>
 </file>
@@ -9956,7 +9994,7 @@
   <dimension ref="A1:F70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="A1:F70"/>
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11370,11 +11408,4726 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC6925F9-E8BE-EB4F-8CF9-13DDF7460F6B}">
+  <dimension ref="A1:P70"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J1" t="s">
+        <v>147</v>
+      </c>
+      <c r="K1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L1" t="s">
+        <v>149</v>
+      </c>
+      <c r="M1" t="s">
+        <v>150</v>
+      </c>
+      <c r="N1" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="O1" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="P1" s="16" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2">
+        <v>-9.19437363890349E-2</v>
+      </c>
+      <c r="C2">
+        <v>0.42501304532258399</v>
+      </c>
+      <c r="D2">
+        <v>0.42419988160660299</v>
+      </c>
+      <c r="E2">
+        <v>0.119714522939614</v>
+      </c>
+      <c r="F2">
+        <v>-0.292333974780703</v>
+      </c>
+      <c r="G2">
+        <v>-0.115663035679237</v>
+      </c>
+      <c r="H2">
+        <v>0.37933746622571601</v>
+      </c>
+      <c r="I2">
+        <v>0.14008458577636199</v>
+      </c>
+      <c r="J2">
+        <v>-5.7567072941430597E-2</v>
+      </c>
+      <c r="K2">
+        <v>0.37641142899763702</v>
+      </c>
+      <c r="L2">
+        <v>-0.37961521162045497</v>
+      </c>
+      <c r="M2">
+        <v>-0.10229251990459801</v>
+      </c>
+      <c r="N2" s="20">
+        <v>9</v>
+      </c>
+      <c r="O2" s="20">
+        <v>4</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3">
+        <v>-0.102523069956631</v>
+      </c>
+      <c r="C3">
+        <v>0.110063420595287</v>
+      </c>
+      <c r="D3">
+        <v>0.33580383762805499</v>
+      </c>
+      <c r="E3">
+        <v>9.1143566926564307E-2</v>
+      </c>
+      <c r="F3">
+        <v>0.15013432762689</v>
+      </c>
+      <c r="G3">
+        <v>-5.39995181497726E-2</v>
+      </c>
+      <c r="H3">
+        <v>-1.00559501964116E-2</v>
+      </c>
+      <c r="I3">
+        <v>0.235248340590264</v>
+      </c>
+      <c r="J3">
+        <v>-0.119614897637731</v>
+      </c>
+      <c r="K3">
+        <v>3.1332317008327198E-2</v>
+      </c>
+      <c r="L3">
+        <v>0.35021072040552198</v>
+      </c>
+      <c r="M3">
+        <v>6.1193966039933899E-2</v>
+      </c>
+      <c r="N3" s="20">
+        <v>31</v>
+      </c>
+      <c r="O3" s="20">
+        <v>20</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4">
+        <v>-2.6016157751382701E-2</v>
+      </c>
+      <c r="C4">
+        <v>0.23974511407173699</v>
+      </c>
+      <c r="D4">
+        <v>-7.0528156563300207E-2</v>
+      </c>
+      <c r="E4">
+        <v>-0.14875302208900401</v>
+      </c>
+      <c r="F4">
+        <v>0.20750536509036699</v>
+      </c>
+      <c r="G4">
+        <v>-0.153053178464089</v>
+      </c>
+      <c r="H4">
+        <v>-0.108799913576755</v>
+      </c>
+      <c r="I4">
+        <v>1.23213284106879E-2</v>
+      </c>
+      <c r="J4">
+        <v>1.2572661495850301E-2</v>
+      </c>
+      <c r="K4">
+        <v>0.13783670828458799</v>
+      </c>
+      <c r="L4">
+        <v>0.57053329450781998</v>
+      </c>
+      <c r="M4">
+        <v>8.0759567184099504E-2</v>
+      </c>
+      <c r="N4" s="20">
+        <v>7</v>
+      </c>
+      <c r="O4" s="20">
+        <v>8</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5">
+        <v>-0.13777662202341001</v>
+      </c>
+      <c r="C5">
+        <v>-0.11524619698863101</v>
+      </c>
+      <c r="D5">
+        <v>0.53563005304693301</v>
+      </c>
+      <c r="E5">
+        <v>-0.37830030971082301</v>
+      </c>
+      <c r="F5">
+        <v>-7.0617794274455706E-2</v>
+      </c>
+      <c r="G5">
+        <v>-0.21817973790919901</v>
+      </c>
+      <c r="H5">
+        <v>-0.26919769436720298</v>
+      </c>
+      <c r="I5">
+        <v>0.21915639528522399</v>
+      </c>
+      <c r="J5">
+        <v>-0.15457089705320901</v>
+      </c>
+      <c r="K5">
+        <v>0.529922122657973</v>
+      </c>
+      <c r="L5">
+        <v>0.54429173353896498</v>
+      </c>
+      <c r="M5">
+        <v>9.31925103266876E-2</v>
+      </c>
+      <c r="N5" s="20">
+        <v>16</v>
+      </c>
+      <c r="O5" s="20">
+        <v>7</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6">
+        <v>-1.02087595270426E-2</v>
+      </c>
+      <c r="C6">
+        <v>-0.16150323602109301</v>
+      </c>
+      <c r="D6">
+        <v>2.61054433761581E-2</v>
+      </c>
+      <c r="E6">
+        <v>-0.33342667230726097</v>
+      </c>
+      <c r="F6">
+        <v>0.35121614694840297</v>
+      </c>
+      <c r="G6">
+        <v>-1.8705647002728799E-2</v>
+      </c>
+      <c r="H6">
+        <v>-0.148642242454916</v>
+      </c>
+      <c r="I6">
+        <v>-1.73707529296773E-2</v>
+      </c>
+      <c r="J6">
+        <v>1.48725853298016E-2</v>
+      </c>
+      <c r="K6">
+        <v>0.31622912078773802</v>
+      </c>
+      <c r="L6">
+        <v>0.51825092683487495</v>
+      </c>
+      <c r="M6">
+        <v>0.24127902416668801</v>
+      </c>
+      <c r="N6" s="20">
+        <v>18</v>
+      </c>
+      <c r="O6" s="20">
+        <v>9</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7">
+        <v>-9.9496058453943201E-2</v>
+      </c>
+      <c r="C7">
+        <v>-3.5638216429797302E-2</v>
+      </c>
+      <c r="D7">
+        <v>0.50637997475346397</v>
+      </c>
+      <c r="E7">
+        <v>-0.366623659580113</v>
+      </c>
+      <c r="F7">
+        <v>-1.5791875508998699E-3</v>
+      </c>
+      <c r="G7">
+        <v>-0.26071847392462599</v>
+      </c>
+      <c r="H7">
+        <v>-0.34593466477488899</v>
+      </c>
+      <c r="I7">
+        <v>0.29424263027608399</v>
+      </c>
+      <c r="J7">
+        <v>-0.21612203273603101</v>
+      </c>
+      <c r="K7">
+        <v>0.1062958631976</v>
+      </c>
+      <c r="L7">
+        <v>0.59052740137574</v>
+      </c>
+      <c r="M7">
+        <v>-0.115831385631921</v>
+      </c>
+      <c r="N7" s="20">
+        <v>15</v>
+      </c>
+      <c r="O7" s="20">
+        <v>7</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8">
+        <v>-1.6194479882778199E-2</v>
+      </c>
+      <c r="C8">
+        <v>-0.42587271525739601</v>
+      </c>
+      <c r="D8">
+        <v>0.368086954746906</v>
+      </c>
+      <c r="E8">
+        <v>-0.15343806234792701</v>
+      </c>
+      <c r="F8">
+        <v>-9.6783445747525204E-2</v>
+      </c>
+      <c r="G8">
+        <v>-0.32424950567215999</v>
+      </c>
+      <c r="H8">
+        <v>0.29148780205248498</v>
+      </c>
+      <c r="I8">
+        <v>-5.6823931609143202E-2</v>
+      </c>
+      <c r="J8">
+        <v>-0.162325413173176</v>
+      </c>
+      <c r="K8">
+        <v>2.9895794969187602E-2</v>
+      </c>
+      <c r="L8">
+        <v>-0.39364339690647998</v>
+      </c>
+      <c r="M8">
+        <v>8.8211154075942006E-3</v>
+      </c>
+      <c r="N8" s="20">
+        <v>17</v>
+      </c>
+      <c r="O8" s="20">
+        <v>14</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9">
+        <v>-0.18300107740884</v>
+      </c>
+      <c r="C9">
+        <v>0.47365055102472697</v>
+      </c>
+      <c r="D9">
+        <v>0.33243158428026098</v>
+      </c>
+      <c r="E9">
+        <v>0.49351180196271</v>
+      </c>
+      <c r="F9">
+        <v>-9.6231277292630202E-2</v>
+      </c>
+      <c r="G9">
+        <v>-0.45103263809958599</v>
+      </c>
+      <c r="H9">
+        <v>-0.30422318703795098</v>
+      </c>
+      <c r="I9">
+        <v>0.13900157951703701</v>
+      </c>
+      <c r="J9">
+        <v>-2.7399848723887999E-2</v>
+      </c>
+      <c r="K9">
+        <v>0.53219593347731398</v>
+      </c>
+      <c r="L9">
+        <v>-0.22765328981310401</v>
+      </c>
+      <c r="M9">
+        <v>-0.26430441618168898</v>
+      </c>
+      <c r="N9" s="20">
+        <v>17</v>
+      </c>
+      <c r="O9" s="20">
+        <v>19</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10">
+        <v>-5.8456522330131901E-3</v>
+      </c>
+      <c r="C10">
+        <v>0.54103328415421603</v>
+      </c>
+      <c r="D10">
+        <v>0.58694623780090505</v>
+      </c>
+      <c r="E10">
+        <v>-0.22565071499460301</v>
+      </c>
+      <c r="F10">
+        <v>-0.37143146115006198</v>
+      </c>
+      <c r="G10">
+        <v>-0.29009324734702202</v>
+      </c>
+      <c r="H10">
+        <v>0.59397895962877501</v>
+      </c>
+      <c r="I10">
+        <v>-0.239448775108454</v>
+      </c>
+      <c r="J10">
+        <v>6.3849579532300499E-2</v>
+      </c>
+      <c r="K10">
+        <v>-0.193671466597063</v>
+      </c>
+      <c r="L10">
+        <v>0.16742830308290599</v>
+      </c>
+      <c r="M10">
+        <v>-0.29467344163026399</v>
+      </c>
+      <c r="N10" s="20">
+        <v>16</v>
+      </c>
+      <c r="O10" s="20">
+        <v>6</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11">
+        <v>-3.8816122061077603E-2</v>
+      </c>
+      <c r="C11">
+        <v>0.45280733830715902</v>
+      </c>
+      <c r="D11">
+        <v>3.44517482730105E-2</v>
+      </c>
+      <c r="E11">
+        <v>-0.10002611387832699</v>
+      </c>
+      <c r="F11">
+        <v>-0.39708820605476097</v>
+      </c>
+      <c r="G11">
+        <v>-0.16323098659650301</v>
+      </c>
+      <c r="H11">
+        <v>-0.29370982203360302</v>
+      </c>
+      <c r="I11">
+        <v>3.3048811160190702E-3</v>
+      </c>
+      <c r="J11">
+        <v>1.57021934112555E-3</v>
+      </c>
+      <c r="K11">
+        <v>0.192872379544237</v>
+      </c>
+      <c r="L11">
+        <v>5.8422174601869603E-2</v>
+      </c>
+      <c r="M11">
+        <v>-3.5912814761489602E-2</v>
+      </c>
+      <c r="N11" s="20">
+        <v>28</v>
+      </c>
+      <c r="O11" s="20">
+        <v>14</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12">
+        <v>-0.12527648582053599</v>
+      </c>
+      <c r="C12">
+        <v>-0.293547755268317</v>
+      </c>
+      <c r="D12">
+        <v>-0.35686082620389598</v>
+      </c>
+      <c r="E12">
+        <v>3.8483562177367002E-2</v>
+      </c>
+      <c r="F12">
+        <v>1.30869027946956E-2</v>
+      </c>
+      <c r="G12">
+        <v>-0.20105295199738701</v>
+      </c>
+      <c r="H12">
+        <v>-0.19052211118811399</v>
+      </c>
+      <c r="I12">
+        <v>-0.245058437294774</v>
+      </c>
+      <c r="J12">
+        <v>-0.136280928850847</v>
+      </c>
+      <c r="K12">
+        <v>0.137164729483741</v>
+      </c>
+      <c r="L12">
+        <v>0.42954220735001603</v>
+      </c>
+      <c r="M12">
+        <v>3.9035688539164802E-2</v>
+      </c>
+      <c r="N12" s="20">
+        <v>16</v>
+      </c>
+      <c r="O12" s="20">
+        <v>7</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13">
+        <v>-2.3059590361409199E-2</v>
+      </c>
+      <c r="C13">
+        <v>-0.37495865232896303</v>
+      </c>
+      <c r="D13">
+        <v>-0.61606619548776798</v>
+      </c>
+      <c r="E13">
+        <v>-3.0036252978733399E-2</v>
+      </c>
+      <c r="F13">
+        <v>3.4261667205468402E-2</v>
+      </c>
+      <c r="G13">
+        <v>-0.12531085785285301</v>
+      </c>
+      <c r="H13">
+        <v>-0.128164406121243</v>
+      </c>
+      <c r="I13">
+        <v>-0.17497576825907499</v>
+      </c>
+      <c r="J13">
+        <v>-0.68989478339502497</v>
+      </c>
+      <c r="K13">
+        <v>-1.9040138410218999E-2</v>
+      </c>
+      <c r="L13">
+        <v>0.35490457242393397</v>
+      </c>
+      <c r="M13">
+        <v>0.14111953009976</v>
+      </c>
+      <c r="N13" s="20">
+        <v>16</v>
+      </c>
+      <c r="O13" s="20">
+        <v>6</v>
+      </c>
+      <c r="P13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14">
+        <v>0.148689960667647</v>
+      </c>
+      <c r="C14">
+        <v>-0.48597048950272098</v>
+      </c>
+      <c r="D14">
+        <v>8.1982957443592699E-2</v>
+      </c>
+      <c r="E14">
+        <v>0.291189070529218</v>
+      </c>
+      <c r="F14">
+        <v>0.13519878476125599</v>
+      </c>
+      <c r="G14">
+        <v>-0.109949849010199</v>
+      </c>
+      <c r="H14">
+        <v>-0.15455051195925301</v>
+      </c>
+      <c r="I14">
+        <v>-2.7216472692932599E-2</v>
+      </c>
+      <c r="J14">
+        <v>4.6638373720034902E-3</v>
+      </c>
+      <c r="K14">
+        <v>-0.2550994693627</v>
+      </c>
+      <c r="L14">
+        <v>0.50847006597331501</v>
+      </c>
+      <c r="M14">
+        <v>9.5960567734575897E-2</v>
+      </c>
+      <c r="N14" s="20">
+        <v>33</v>
+      </c>
+      <c r="O14" s="20">
+        <v>25</v>
+      </c>
+      <c r="P14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>79</v>
+      </c>
+      <c r="B15">
+        <v>-0.13379530602113801</v>
+      </c>
+      <c r="C15">
+        <v>0.19330014433327</v>
+      </c>
+      <c r="D15">
+        <v>0.462720361591553</v>
+      </c>
+      <c r="E15">
+        <v>-1.4602890850912301E-3</v>
+      </c>
+      <c r="F15">
+        <v>-0.15870938951101801</v>
+      </c>
+      <c r="G15">
+        <v>-8.6531607275719499E-2</v>
+      </c>
+      <c r="H15">
+        <v>-7.9879029241749604E-3</v>
+      </c>
+      <c r="I15">
+        <v>0.32416938660834099</v>
+      </c>
+      <c r="J15">
+        <v>-0.15407746022741001</v>
+      </c>
+      <c r="K15">
+        <v>-8.7652404584761506E-2</v>
+      </c>
+      <c r="L15">
+        <v>0.336815676772451</v>
+      </c>
+      <c r="M15">
+        <v>9.1964291244544891E-3</v>
+      </c>
+      <c r="N15" s="20">
+        <v>27</v>
+      </c>
+      <c r="O15" s="20">
+        <v>15</v>
+      </c>
+      <c r="P15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16">
+        <v>1.8987931926141999E-2</v>
+      </c>
+      <c r="C16">
+        <v>0.59610823040452598</v>
+      </c>
+      <c r="D16">
+        <v>0.258686084658237</v>
+      </c>
+      <c r="E16">
+        <v>-0.220421728456688</v>
+      </c>
+      <c r="F16">
+        <v>-0.60789169171184299</v>
+      </c>
+      <c r="G16">
+        <v>-0.187733520451</v>
+      </c>
+      <c r="H16">
+        <v>0.16797049564177899</v>
+      </c>
+      <c r="I16">
+        <v>-0.159992999964674</v>
+      </c>
+      <c r="J16">
+        <v>-0.33005402834202202</v>
+      </c>
+      <c r="K16">
+        <v>-0.134329407143496</v>
+      </c>
+      <c r="L16">
+        <v>0.53897326778856902</v>
+      </c>
+      <c r="M16">
+        <v>0.35084438626933601</v>
+      </c>
+      <c r="N16" s="20">
+        <v>20</v>
+      </c>
+      <c r="O16" s="20">
+        <v>7</v>
+      </c>
+      <c r="P16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>81</v>
+      </c>
+      <c r="B17">
+        <v>-4.5900913584589302E-2</v>
+      </c>
+      <c r="C17">
+        <v>0.27299406095976497</v>
+      </c>
+      <c r="D17">
+        <v>0.50543702868672702</v>
+      </c>
+      <c r="E17">
+        <v>0.16245904735498901</v>
+      </c>
+      <c r="F17">
+        <v>-0.305682279188846</v>
+      </c>
+      <c r="G17">
+        <v>-0.55757952046443005</v>
+      </c>
+      <c r="H17">
+        <v>0.26556408477819199</v>
+      </c>
+      <c r="I17">
+        <v>0.22695224667557301</v>
+      </c>
+      <c r="J17">
+        <v>6.08407793590414E-3</v>
+      </c>
+      <c r="K17">
+        <v>0.16916462382405101</v>
+      </c>
+      <c r="L17">
+        <v>0.69346178896310695</v>
+      </c>
+      <c r="M17">
+        <v>-9.6544903859151002E-2</v>
+      </c>
+      <c r="N17" s="20">
+        <v>13</v>
+      </c>
+      <c r="O17" s="20">
+        <v>3</v>
+      </c>
+      <c r="P17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>82</v>
+      </c>
+      <c r="B18">
+        <v>-0.18330773298</v>
+      </c>
+      <c r="C18">
+        <v>5.8463483280582297E-2</v>
+      </c>
+      <c r="D18">
+        <v>-0.14632607698674099</v>
+      </c>
+      <c r="E18">
+        <v>-0.50052648354477702</v>
+      </c>
+      <c r="F18">
+        <v>6.4055780645290994E-2</v>
+      </c>
+      <c r="G18">
+        <v>-0.246292473932857</v>
+      </c>
+      <c r="H18">
+        <v>-1.30372030423437E-2</v>
+      </c>
+      <c r="I18">
+        <v>-0.173084611798246</v>
+      </c>
+      <c r="J18">
+        <v>-1.3624244516735801E-2</v>
+      </c>
+      <c r="K18">
+        <v>-0.286107768501286</v>
+      </c>
+      <c r="L18">
+        <v>0.608095840946271</v>
+      </c>
+      <c r="M18">
+        <v>-0.13891436909864599</v>
+      </c>
+      <c r="N18" s="20">
+        <v>14</v>
+      </c>
+      <c r="O18" s="20">
+        <v>9</v>
+      </c>
+      <c r="P18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19">
+        <v>6.1137451118997203E-2</v>
+      </c>
+      <c r="C19">
+        <v>0.26489482792025998</v>
+      </c>
+      <c r="D19">
+        <v>0.30311067098043298</v>
+      </c>
+      <c r="E19">
+        <v>5.1793836491874599E-2</v>
+      </c>
+      <c r="F19">
+        <v>-5.3401235465951498E-2</v>
+      </c>
+      <c r="G19">
+        <v>-0.19576455743656301</v>
+      </c>
+      <c r="H19">
+        <v>9.2298556383807406E-2</v>
+      </c>
+      <c r="I19">
+        <v>-0.129543031499157</v>
+      </c>
+      <c r="J19">
+        <v>3.9130461002236203E-2</v>
+      </c>
+      <c r="K19">
+        <v>-0.106852509439141</v>
+      </c>
+      <c r="L19">
+        <v>-0.32504712065595698</v>
+      </c>
+      <c r="M19">
+        <v>-5.7492387904379703E-4</v>
+      </c>
+      <c r="N19" s="20">
+        <v>22</v>
+      </c>
+      <c r="O19" s="20">
+        <v>13</v>
+      </c>
+      <c r="P19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>84</v>
+      </c>
+      <c r="B20">
+        <v>2.9875444458690999E-2</v>
+      </c>
+      <c r="C20">
+        <v>0.42923369272876599</v>
+      </c>
+      <c r="D20">
+        <v>0.203803635411796</v>
+      </c>
+      <c r="E20">
+        <v>-0.110152080326816</v>
+      </c>
+      <c r="F20">
+        <v>-1.3909489993353501E-2</v>
+      </c>
+      <c r="G20">
+        <v>-0.19383200728215699</v>
+      </c>
+      <c r="H20">
+        <v>-0.27005578281569798</v>
+      </c>
+      <c r="I20">
+        <v>-1.13791993896071E-2</v>
+      </c>
+      <c r="J20">
+        <v>-5.5959045682838403E-2</v>
+      </c>
+      <c r="K20">
+        <v>0.208472119319842</v>
+      </c>
+      <c r="L20">
+        <v>0.35466550121558099</v>
+      </c>
+      <c r="M20">
+        <v>-3.22939116067604E-2</v>
+      </c>
+      <c r="N20" s="20">
+        <v>18</v>
+      </c>
+      <c r="O20" s="20">
+        <v>9</v>
+      </c>
+      <c r="P20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>85</v>
+      </c>
+      <c r="B21">
+        <v>0.21393772502276401</v>
+      </c>
+      <c r="C21">
+        <v>6.6844265796865504E-2</v>
+      </c>
+      <c r="D21">
+        <v>0.84075491623994902</v>
+      </c>
+      <c r="E21">
+        <v>0.118508546296075</v>
+      </c>
+      <c r="F21">
+        <v>-0.14187756551831299</v>
+      </c>
+      <c r="G21">
+        <v>-0.23760286201306099</v>
+      </c>
+      <c r="H21">
+        <v>9.4918998691162507E-2</v>
+      </c>
+      <c r="I21">
+        <v>-0.319446827269672</v>
+      </c>
+      <c r="J21">
+        <v>-7.0319841944271697E-2</v>
+      </c>
+      <c r="K21">
+        <v>-0.16007107733469</v>
+      </c>
+      <c r="L21">
+        <v>0.44343884705678899</v>
+      </c>
+      <c r="M21">
+        <v>6.59362368960762E-3</v>
+      </c>
+      <c r="N21" s="20">
+        <v>20</v>
+      </c>
+      <c r="O21" s="20">
+        <v>16</v>
+      </c>
+      <c r="P21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>86</v>
+      </c>
+      <c r="B22">
+        <v>-9.3018516847814897E-2</v>
+      </c>
+      <c r="C22">
+        <v>-6.2107522772676997E-2</v>
+      </c>
+      <c r="D22">
+        <v>0.20095508610697899</v>
+      </c>
+      <c r="E22">
+        <v>2.9192250172541699E-2</v>
+      </c>
+      <c r="F22">
+        <v>8.5448051198765806E-2</v>
+      </c>
+      <c r="G22">
+        <v>-2.5736154494084101E-2</v>
+      </c>
+      <c r="H22">
+        <v>5.40810526946622E-3</v>
+      </c>
+      <c r="I22">
+        <v>7.79313902850787E-2</v>
+      </c>
+      <c r="J22">
+        <v>-4.0372159961485903E-2</v>
+      </c>
+      <c r="K22">
+        <v>-0.28310597805837701</v>
+      </c>
+      <c r="L22">
+        <v>-0.204233541910188</v>
+      </c>
+      <c r="M22">
+        <v>1.65037878630336E-3</v>
+      </c>
+      <c r="N22" s="20">
+        <v>2</v>
+      </c>
+      <c r="O22" s="20">
+        <v>9</v>
+      </c>
+      <c r="P22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>87</v>
+      </c>
+      <c r="B23">
+        <v>0.31911007009751202</v>
+      </c>
+      <c r="C23">
+        <v>0.57036587020506702</v>
+      </c>
+      <c r="D23">
+        <v>-0.153524205457956</v>
+      </c>
+      <c r="E23">
+        <v>2.82157589355942E-2</v>
+      </c>
+      <c r="F23">
+        <v>-0.539668631894479</v>
+      </c>
+      <c r="G23">
+        <v>-0.57933003898311997</v>
+      </c>
+      <c r="H23">
+        <v>-0.14322795371050301</v>
+      </c>
+      <c r="I23">
+        <v>0.10571885080152101</v>
+      </c>
+      <c r="J23">
+        <v>-9.1611361790722795E-2</v>
+      </c>
+      <c r="K23">
+        <v>-0.334589510391614</v>
+      </c>
+      <c r="L23">
+        <v>6.9485061203884202E-2</v>
+      </c>
+      <c r="M23">
+        <v>0.16465271672121501</v>
+      </c>
+      <c r="N23" s="20">
+        <v>6</v>
+      </c>
+      <c r="O23" s="20">
+        <v>7</v>
+      </c>
+      <c r="P23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>88</v>
+      </c>
+      <c r="B24">
+        <v>-0.13798999376315901</v>
+      </c>
+      <c r="C24">
+        <v>2.28053681323864E-2</v>
+      </c>
+      <c r="D24">
+        <v>-0.41003185629007599</v>
+      </c>
+      <c r="E24">
+        <v>-6.3809116338303301E-2</v>
+      </c>
+      <c r="F24">
+        <v>-1.3824905597945501E-2</v>
+      </c>
+      <c r="G24">
+        <v>-5.29753144286347E-2</v>
+      </c>
+      <c r="H24">
+        <v>-1.50246985723952E-3</v>
+      </c>
+      <c r="I24">
+        <v>-0.35736370256223199</v>
+      </c>
+      <c r="J24">
+        <v>-0.236400515491135</v>
+      </c>
+      <c r="K24">
+        <v>8.4520672960793894E-2</v>
+      </c>
+      <c r="L24">
+        <v>0.256557002549688</v>
+      </c>
+      <c r="M24">
+        <v>2.45962579719181E-3</v>
+      </c>
+      <c r="N24" s="20">
+        <v>5</v>
+      </c>
+      <c r="O24" s="20">
+        <v>3</v>
+      </c>
+      <c r="P24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>89</v>
+      </c>
+      <c r="B25">
+        <v>-0.27048370075484202</v>
+      </c>
+      <c r="C25">
+        <v>0.35283140773760002</v>
+      </c>
+      <c r="D25">
+        <v>0.81222209578569304</v>
+      </c>
+      <c r="E25">
+        <v>0.44293030584760701</v>
+      </c>
+      <c r="F25">
+        <v>-0.46647972332613002</v>
+      </c>
+      <c r="G25">
+        <v>-5.0717985212834299E-2</v>
+      </c>
+      <c r="H25">
+        <v>-0.34886057614733301</v>
+      </c>
+      <c r="I25">
+        <v>0.39404269891577098</v>
+      </c>
+      <c r="J25">
+        <v>2.9196028457441701E-2</v>
+      </c>
+      <c r="K25">
+        <v>0.51601266754277797</v>
+      </c>
+      <c r="L25">
+        <v>0.58823890529676603</v>
+      </c>
+      <c r="M25">
+        <v>0.34910454555088599</v>
+      </c>
+      <c r="N25" s="20">
+        <v>12</v>
+      </c>
+      <c r="O25" s="20">
+        <v>7</v>
+      </c>
+      <c r="P25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>90</v>
+      </c>
+      <c r="B26">
+        <v>-3.8644608252910197E-2</v>
+      </c>
+      <c r="C26">
+        <v>7.7980453436463204E-2</v>
+      </c>
+      <c r="D26">
+        <v>-7.2447277368389004E-2</v>
+      </c>
+      <c r="E26">
+        <v>-0.33867958246741903</v>
+      </c>
+      <c r="F26" s="19">
+        <v>-1.8144387736526399E-5</v>
+      </c>
+      <c r="G26">
+        <v>-0.109385656042569</v>
+      </c>
+      <c r="H26">
+        <v>-0.20569079485383601</v>
+      </c>
+      <c r="I26">
+        <v>-1.4567876023290099E-2</v>
+      </c>
+      <c r="J26">
+        <v>-1.97910335160024E-2</v>
+      </c>
+      <c r="K26">
+        <v>-0.15369528259095</v>
+      </c>
+      <c r="L26">
+        <v>0.48069857808920502</v>
+      </c>
+      <c r="M26">
+        <v>-3.4061039772651597E-2</v>
+      </c>
+      <c r="N26" s="20">
+        <v>10</v>
+      </c>
+      <c r="O26" s="20">
+        <v>6</v>
+      </c>
+      <c r="P26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>91</v>
+      </c>
+      <c r="B27">
+        <v>-6.4364943672955602E-2</v>
+      </c>
+      <c r="C27">
+        <v>-0.14867028730731899</v>
+      </c>
+      <c r="D27">
+        <v>0.14173318789930001</v>
+      </c>
+      <c r="E27">
+        <v>-1.7777681342767699E-3</v>
+      </c>
+      <c r="F27">
+        <v>-0.18086483884960999</v>
+      </c>
+      <c r="G27">
+        <v>-0.119502149173844</v>
+      </c>
+      <c r="H27">
+        <v>3.4825443203879203E-2</v>
+      </c>
+      <c r="I27">
+        <v>5.0370903164537802E-2</v>
+      </c>
+      <c r="J27">
+        <v>-2.33976750429917E-2</v>
+      </c>
+      <c r="K27">
+        <v>-0.117332447648906</v>
+      </c>
+      <c r="L27">
+        <v>0.321471425778805</v>
+      </c>
+      <c r="M27">
+        <v>-1.28458002819498E-2</v>
+      </c>
+      <c r="N27" s="20">
+        <v>10</v>
+      </c>
+      <c r="O27" s="20">
+        <v>7</v>
+      </c>
+      <c r="P27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>92</v>
+      </c>
+      <c r="B28">
+        <v>-3.8526218543003102E-2</v>
+      </c>
+      <c r="C28">
+        <v>0.78009992793440797</v>
+      </c>
+      <c r="D28">
+        <v>-0.29662487670356802</v>
+      </c>
+      <c r="E28">
+        <v>-0.24702232576560401</v>
+      </c>
+      <c r="F28">
+        <v>-0.212117680562112</v>
+      </c>
+      <c r="G28">
+        <v>-0.124994195825087</v>
+      </c>
+      <c r="H28">
+        <v>-0.250959610790427</v>
+      </c>
+      <c r="I28">
+        <v>0.439280803758687</v>
+      </c>
+      <c r="J28">
+        <v>-0.52377409553814602</v>
+      </c>
+      <c r="K28">
+        <v>-9.83719050980017E-2</v>
+      </c>
+      <c r="L28">
+        <v>-1.6035111542154298E-2</v>
+      </c>
+      <c r="M28">
+        <v>-2.5143706291417101E-2</v>
+      </c>
+      <c r="N28" s="20">
+        <v>7</v>
+      </c>
+      <c r="O28" s="20">
+        <v>2</v>
+      </c>
+      <c r="P28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>93</v>
+      </c>
+      <c r="B29">
+        <v>-1.8752201912924E-2</v>
+      </c>
+      <c r="C29">
+        <v>0.47692969835905902</v>
+      </c>
+      <c r="D29">
+        <v>0.40141048122390799</v>
+      </c>
+      <c r="E29">
+        <v>5.9623486575191703E-2</v>
+      </c>
+      <c r="F29">
+        <v>-6.9481453408711105E-2</v>
+      </c>
+      <c r="G29">
+        <v>-0.13850379139757399</v>
+      </c>
+      <c r="H29">
+        <v>-0.21972299609072499</v>
+      </c>
+      <c r="I29">
+        <v>-9.9559030851147201E-2</v>
+      </c>
+      <c r="J29">
+        <v>-0.24985288544252501</v>
+      </c>
+      <c r="K29">
+        <v>0.11372613923326701</v>
+      </c>
+      <c r="L29">
+        <v>-2.06402863353287E-2</v>
+      </c>
+      <c r="M29">
+        <v>-5.8979007093697397E-2</v>
+      </c>
+      <c r="N29" s="20">
+        <v>19</v>
+      </c>
+      <c r="O29" s="20">
+        <v>23</v>
+      </c>
+      <c r="P29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>94</v>
+      </c>
+      <c r="B30">
+        <v>-5.26361068437061E-2</v>
+      </c>
+      <c r="C30">
+        <v>9.72956749390506E-2</v>
+      </c>
+      <c r="D30">
+        <v>0.26326531382775697</v>
+      </c>
+      <c r="E30">
+        <v>4.7275507530486503E-2</v>
+      </c>
+      <c r="F30">
+        <v>0.19874641622427799</v>
+      </c>
+      <c r="G30">
+        <v>-0.19205979723257799</v>
+      </c>
+      <c r="H30">
+        <v>0.11582603126542999</v>
+      </c>
+      <c r="I30">
+        <v>6.7330200404827997E-2</v>
+      </c>
+      <c r="J30">
+        <v>-6.6898506525970999E-2</v>
+      </c>
+      <c r="K30">
+        <v>8.9727451974877304E-2</v>
+      </c>
+      <c r="L30">
+        <v>0.48117455960720201</v>
+      </c>
+      <c r="M30">
+        <v>-2.4578881000125102E-2</v>
+      </c>
+      <c r="N30" s="20">
+        <v>10</v>
+      </c>
+      <c r="O30" s="20">
+        <v>2</v>
+      </c>
+      <c r="P30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>95</v>
+      </c>
+      <c r="B31">
+        <v>-0.13788455736354699</v>
+      </c>
+      <c r="C31">
+        <v>0.23122063793299</v>
+      </c>
+      <c r="D31">
+        <v>0.181076086043335</v>
+      </c>
+      <c r="E31">
+        <v>0.34653951095735103</v>
+      </c>
+      <c r="F31">
+        <v>3.93043445704453E-2</v>
+      </c>
+      <c r="G31">
+        <v>-0.49636903739156402</v>
+      </c>
+      <c r="H31">
+        <v>-7.6803681085908196E-2</v>
+      </c>
+      <c r="I31">
+        <v>0.179128475881741</v>
+      </c>
+      <c r="J31">
+        <v>-0.13144104761971301</v>
+      </c>
+      <c r="K31">
+        <v>0.25090495240199201</v>
+      </c>
+      <c r="L31">
+        <v>-0.73825864758320403</v>
+      </c>
+      <c r="M31">
+        <v>-0.21995609107004699</v>
+      </c>
+      <c r="N31" s="20">
+        <v>8</v>
+      </c>
+      <c r="O31" s="20">
+        <v>2</v>
+      </c>
+      <c r="P31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>96</v>
+      </c>
+      <c r="B32">
+        <v>-8.39371969408329E-3</v>
+      </c>
+      <c r="C32">
+        <v>-5.3976399799093702E-2</v>
+      </c>
+      <c r="D32">
+        <v>0.22117810456079701</v>
+      </c>
+      <c r="E32">
+        <v>0.14830017332885101</v>
+      </c>
+      <c r="F32">
+        <v>-0.20988701778577901</v>
+      </c>
+      <c r="G32">
+        <v>-0.156448543441743</v>
+      </c>
+      <c r="H32">
+        <v>-0.40807808173402499</v>
+      </c>
+      <c r="I32">
+        <v>-6.9894984545275096E-2</v>
+      </c>
+      <c r="J32">
+        <v>-1.65222334630017E-2</v>
+      </c>
+      <c r="K32">
+        <v>-2.45864452256669E-2</v>
+      </c>
+      <c r="L32">
+        <v>0.62497285421233995</v>
+      </c>
+      <c r="M32">
+        <v>0.12437485064309001</v>
+      </c>
+      <c r="N32" s="20">
+        <v>29</v>
+      </c>
+      <c r="O32" s="20">
+        <v>26</v>
+      </c>
+      <c r="P32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>97</v>
+      </c>
+      <c r="B33">
+        <v>2.4120719975082301E-3</v>
+      </c>
+      <c r="C33">
+        <v>0.41538369786131302</v>
+      </c>
+      <c r="D33">
+        <v>0.40159570261539301</v>
+      </c>
+      <c r="E33">
+        <v>4.91809365979229E-2</v>
+      </c>
+      <c r="F33">
+        <v>7.4414195357885696E-2</v>
+      </c>
+      <c r="G33">
+        <v>-0.15375481320985199</v>
+      </c>
+      <c r="H33">
+        <v>0.18705965331513</v>
+      </c>
+      <c r="I33">
+        <v>7.8889535282793702E-2</v>
+      </c>
+      <c r="J33">
+        <v>-0.135328417424253</v>
+      </c>
+      <c r="K33">
+        <v>-6.2926409999361693E-2</v>
+      </c>
+      <c r="L33">
+        <v>3.3702183286804403E-2</v>
+      </c>
+      <c r="M33">
+        <v>-6.6148302503472506E-2</v>
+      </c>
+      <c r="N33" s="20">
+        <v>6</v>
+      </c>
+      <c r="O33" s="20">
+        <v>10</v>
+      </c>
+      <c r="P33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>98</v>
+      </c>
+      <c r="B34">
+        <v>-6.3416263199855799E-2</v>
+      </c>
+      <c r="C34">
+        <v>-0.18857887789276201</v>
+      </c>
+      <c r="D34">
+        <v>0.29383832414726302</v>
+      </c>
+      <c r="E34">
+        <v>0.39072736723759299</v>
+      </c>
+      <c r="F34">
+        <v>0.19170652726351101</v>
+      </c>
+      <c r="G34">
+        <v>-0.13858317758399299</v>
+      </c>
+      <c r="H34">
+        <v>-9.7253603417166296E-2</v>
+      </c>
+      <c r="I34">
+        <v>8.8394505029461196E-2</v>
+      </c>
+      <c r="J34">
+        <v>-0.28329772968887701</v>
+      </c>
+      <c r="K34">
+        <v>0.19053735288978901</v>
+      </c>
+      <c r="L34">
+        <v>0.706265199938792</v>
+      </c>
+      <c r="M34">
+        <v>7.1635183407676897E-2</v>
+      </c>
+      <c r="N34" s="20">
+        <v>0</v>
+      </c>
+      <c r="O34" s="20">
+        <v>1</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>99</v>
+      </c>
+      <c r="B35">
+        <v>1.47512503722223E-2</v>
+      </c>
+      <c r="C35">
+        <v>0.395354991926749</v>
+      </c>
+      <c r="D35">
+        <v>0.111974424687888</v>
+      </c>
+      <c r="E35">
+        <v>6.3648855530835699E-2</v>
+      </c>
+      <c r="F35">
+        <v>-4.9978476897177097E-2</v>
+      </c>
+      <c r="G35">
+        <v>-0.174278121795339</v>
+      </c>
+      <c r="H35">
+        <v>0.249312057459847</v>
+      </c>
+      <c r="I35">
+        <v>-4.1527237705002603E-4</v>
+      </c>
+      <c r="J35" s="19">
+        <v>3.7385657999195199E-5</v>
+      </c>
+      <c r="K35">
+        <v>-2.1901457037664E-2</v>
+      </c>
+      <c r="L35">
+        <v>0.280118340868728</v>
+      </c>
+      <c r="M35">
+        <v>-7.7779499203625702E-2</v>
+      </c>
+      <c r="N35" s="20">
+        <v>0</v>
+      </c>
+      <c r="O35" s="20">
+        <v>3</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>100</v>
+      </c>
+      <c r="B36">
+        <v>-4.5362655860716E-2</v>
+      </c>
+      <c r="C36">
+        <v>0.48903650329327802</v>
+      </c>
+      <c r="D36">
+        <v>0.32161218059948898</v>
+      </c>
+      <c r="E36">
+        <v>0.31412406285311301</v>
+      </c>
+      <c r="F36">
+        <v>0.17854554669587699</v>
+      </c>
+      <c r="G36">
+        <v>-0.185116638638887</v>
+      </c>
+      <c r="H36">
+        <v>0.2344636106421</v>
+      </c>
+      <c r="I36">
+        <v>0.113057684284285</v>
+      </c>
+      <c r="J36">
+        <v>-1.4172007866911401E-2</v>
+      </c>
+      <c r="K36">
+        <v>-1.0434991037584501E-2</v>
+      </c>
+      <c r="L36">
+        <v>-0.34515823805863799</v>
+      </c>
+      <c r="M36">
+        <v>-0.15906235270594199</v>
+      </c>
+      <c r="N36" s="20">
+        <v>3</v>
+      </c>
+      <c r="O36" s="20">
+        <v>3</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>101</v>
+      </c>
+      <c r="B37">
+        <v>-0.286307040616266</v>
+      </c>
+      <c r="C37">
+        <v>0.210342130357031</v>
+      </c>
+      <c r="D37">
+        <v>0.42122738629275902</v>
+      </c>
+      <c r="E37">
+        <v>0.58947273756820595</v>
+      </c>
+      <c r="F37">
+        <v>0.30535302610837201</v>
+      </c>
+      <c r="G37">
+        <v>-3.6228755815708197E-2</v>
+      </c>
+      <c r="H37">
+        <v>-0.20766018212857901</v>
+      </c>
+      <c r="I37">
+        <v>-0.40467377839399199</v>
+      </c>
+      <c r="J37">
+        <v>-0.55951069288894695</v>
+      </c>
+      <c r="K37">
+        <v>0.638194421083911</v>
+      </c>
+      <c r="L37">
+        <v>0.17437823060959301</v>
+      </c>
+      <c r="M37">
+        <v>-0.15154611019240599</v>
+      </c>
+      <c r="N37" s="20">
+        <v>1</v>
+      </c>
+      <c r="O37" s="20">
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>102</v>
+      </c>
+      <c r="B38">
+        <v>-2.2209686722494501E-2</v>
+      </c>
+      <c r="C38">
+        <v>0.10868510144268</v>
+      </c>
+      <c r="D38">
+        <v>6.5366565205378993E-2</v>
+      </c>
+      <c r="E38">
+        <v>9.8938796780257104E-2</v>
+      </c>
+      <c r="F38">
+        <v>0.116675482981973</v>
+      </c>
+      <c r="G38">
+        <v>-0.13703107876304099</v>
+      </c>
+      <c r="H38">
+        <v>0.141641386839918</v>
+      </c>
+      <c r="I38">
+        <v>1.0753183476579701E-2</v>
+      </c>
+      <c r="J38">
+        <v>-2.7911649031575701E-3</v>
+      </c>
+      <c r="K38">
+        <v>0.105609557176938</v>
+      </c>
+      <c r="L38">
+        <v>0.35401585338331099</v>
+      </c>
+      <c r="M38">
+        <v>-3.72231183470089E-2</v>
+      </c>
+      <c r="N38" s="20">
+        <v>0</v>
+      </c>
+      <c r="O38" s="20">
+        <v>6</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>103</v>
+      </c>
+      <c r="B39">
+        <v>-2.9677691134647102E-2</v>
+      </c>
+      <c r="C39">
+        <v>0.50154932987771195</v>
+      </c>
+      <c r="D39">
+        <v>0.42299506032125</v>
+      </c>
+      <c r="E39">
+        <v>4.2145709923242696E-3</v>
+      </c>
+      <c r="F39">
+        <v>0.161956121602676</v>
+      </c>
+      <c r="G39">
+        <v>-0.221517214653179</v>
+      </c>
+      <c r="H39">
+        <v>2.9780584157611301E-2</v>
+      </c>
+      <c r="I39">
+        <v>9.7870072247281198E-2</v>
+      </c>
+      <c r="J39">
+        <v>-0.20689928320871001</v>
+      </c>
+      <c r="K39">
+        <v>7.6161302561063807E-2</v>
+      </c>
+      <c r="L39">
+        <v>7.0537318917370598E-2</v>
+      </c>
+      <c r="M39">
+        <v>-9.5191339087171492E-3</v>
+      </c>
+      <c r="N39" s="20">
+        <v>1</v>
+      </c>
+      <c r="O39" s="20">
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>104</v>
+      </c>
+      <c r="B40">
+        <v>3.9531851523623901E-2</v>
+      </c>
+      <c r="C40">
+        <v>0.56443482409649404</v>
+      </c>
+      <c r="D40">
+        <v>-8.6006066139632395E-2</v>
+      </c>
+      <c r="E40">
+        <v>-0.11647923593412</v>
+      </c>
+      <c r="F40">
+        <v>-0.286713352558295</v>
+      </c>
+      <c r="G40">
+        <v>-0.17447053109111599</v>
+      </c>
+      <c r="H40">
+        <v>-0.32684346885638499</v>
+      </c>
+      <c r="I40">
+        <v>4.6626534039723298E-2</v>
+      </c>
+      <c r="J40">
+        <v>-1.1852747547202201E-2</v>
+      </c>
+      <c r="K40">
+        <v>8.5549171753532993E-2</v>
+      </c>
+      <c r="L40">
+        <v>0.155359462015252</v>
+      </c>
+      <c r="M40">
+        <v>-3.3239344010617199E-2</v>
+      </c>
+      <c r="N40" s="20">
+        <v>2</v>
+      </c>
+      <c r="O40" s="20">
+        <v>1</v>
+      </c>
+      <c r="P40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>105</v>
+      </c>
+      <c r="B41">
+        <v>-1.7508111263693098E-2</v>
+      </c>
+      <c r="C41">
+        <v>0.67449173462438505</v>
+      </c>
+      <c r="D41">
+        <v>-2.9649486914758798E-3</v>
+      </c>
+      <c r="E41">
+        <v>-5.9840730545059298E-2</v>
+      </c>
+      <c r="F41">
+        <v>-0.25168023516294002</v>
+      </c>
+      <c r="G41">
+        <v>-0.35601219251072302</v>
+      </c>
+      <c r="H41">
+        <v>-0.120176870339383</v>
+      </c>
+      <c r="I41">
+        <v>1.3515670475104E-2</v>
+      </c>
+      <c r="J41">
+        <v>-3.23844955926646E-3</v>
+      </c>
+      <c r="K41">
+        <v>0.153636073025502</v>
+      </c>
+      <c r="L41">
+        <v>1.43862123677566E-2</v>
+      </c>
+      <c r="M41">
+        <v>-2.2695268887689801E-2</v>
+      </c>
+      <c r="N41" s="20">
+        <v>0</v>
+      </c>
+      <c r="O41" s="20">
+        <v>2</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>106</v>
+      </c>
+      <c r="B42">
+        <v>5.1611348271119101E-2</v>
+      </c>
+      <c r="C42">
+        <v>0.29194202113397999</v>
+      </c>
+      <c r="D42">
+        <v>-9.1533738327550407E-2</v>
+      </c>
+      <c r="E42">
+        <v>-0.15683214060565401</v>
+      </c>
+      <c r="F42">
+        <v>-5.4462798479373201E-2</v>
+      </c>
+      <c r="G42">
+        <v>-6.5367295993497998E-2</v>
+      </c>
+      <c r="H42">
+        <v>-0.23535457708928401</v>
+      </c>
+      <c r="I42">
+        <v>2.75679329996001E-2</v>
+      </c>
+      <c r="J42">
+        <v>-1.5825833506081698E-2</v>
+      </c>
+      <c r="K42">
+        <v>4.9437245602586902E-2</v>
+      </c>
+      <c r="L42">
+        <v>0.48150265210312299</v>
+      </c>
+      <c r="M42">
+        <v>-5.5265451756409997E-2</v>
+      </c>
+      <c r="N42" s="20">
+        <v>0</v>
+      </c>
+      <c r="O42" s="20">
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>107</v>
+      </c>
+      <c r="B43">
+        <v>-2.1872037238339501E-2</v>
+      </c>
+      <c r="C43">
+        <v>0.35316354902764402</v>
+      </c>
+      <c r="D43">
+        <v>-0.31979305942106401</v>
+      </c>
+      <c r="E43">
+        <v>3.2359947916629599E-3</v>
+      </c>
+      <c r="F43">
+        <v>-3.7868633951304298E-2</v>
+      </c>
+      <c r="G43">
+        <v>-0.21742519719649001</v>
+      </c>
+      <c r="H43">
+        <v>8.6545139647696501E-2</v>
+      </c>
+      <c r="I43">
+        <v>2.7457406068900299E-2</v>
+      </c>
+      <c r="J43">
+        <v>-9.7745544010770694E-2</v>
+      </c>
+      <c r="K43">
+        <v>2.1713986339193501E-2</v>
+      </c>
+      <c r="L43">
+        <v>0.352415735580555</v>
+      </c>
+      <c r="M43">
+        <v>-2.6538506024551999E-2</v>
+      </c>
+      <c r="N43" s="20">
+        <v>0</v>
+      </c>
+      <c r="O43" s="20">
+        <v>1</v>
+      </c>
+      <c r="P43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>108</v>
+      </c>
+      <c r="B44">
+        <v>-0.220649716060976</v>
+      </c>
+      <c r="C44">
+        <v>0.74574026911717095</v>
+      </c>
+      <c r="D44">
+        <v>0.31866263016164098</v>
+      </c>
+      <c r="E44">
+        <v>0.30209225908829002</v>
+      </c>
+      <c r="F44">
+        <v>-0.52547157777547204</v>
+      </c>
+      <c r="G44">
+        <v>-0.18815293280567399</v>
+      </c>
+      <c r="H44">
+        <v>0.122263519842171</v>
+      </c>
+      <c r="I44">
+        <v>0.218311564065749</v>
+      </c>
+      <c r="J44">
+        <v>2.9676864859113E-2</v>
+      </c>
+      <c r="K44">
+        <v>0.63134337115898997</v>
+      </c>
+      <c r="L44">
+        <v>-0.36405710396388302</v>
+      </c>
+      <c r="M44">
+        <v>-0.212693779800426</v>
+      </c>
+      <c r="N44" s="20">
+        <v>3</v>
+      </c>
+      <c r="O44" s="20">
+        <v>2</v>
+      </c>
+      <c r="P44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>109</v>
+      </c>
+      <c r="B45">
+        <v>-9.6896572122464497E-2</v>
+      </c>
+      <c r="C45">
+        <v>0.33670614716671499</v>
+      </c>
+      <c r="D45">
+        <v>0.133589784883791</v>
+      </c>
+      <c r="E45">
+        <v>0.274049932614159</v>
+      </c>
+      <c r="F45">
+        <v>-0.31877459691208199</v>
+      </c>
+      <c r="G45">
+        <v>-0.11914968781329</v>
+      </c>
+      <c r="H45">
+        <v>0.11326984758573599</v>
+      </c>
+      <c r="I45">
+        <v>-1.7857714112329798E-2</v>
+      </c>
+      <c r="J45">
+        <v>7.7316852494498503E-2</v>
+      </c>
+      <c r="K45">
+        <v>0.43168836971491298</v>
+      </c>
+      <c r="L45">
+        <v>-0.168876787460738</v>
+      </c>
+      <c r="M45">
+        <v>-0.23435838349440599</v>
+      </c>
+      <c r="N45" s="20">
+        <v>1</v>
+      </c>
+      <c r="O45" s="20">
+        <v>3</v>
+      </c>
+      <c r="P45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>110</v>
+      </c>
+      <c r="B46">
+        <v>-2.0906791532068199E-2</v>
+      </c>
+      <c r="C46">
+        <v>0.20035365879236</v>
+      </c>
+      <c r="D46">
+        <v>0.24641263607205299</v>
+      </c>
+      <c r="E46">
+        <v>-0.108198890015881</v>
+      </c>
+      <c r="F46">
+        <v>3.2562765212193E-2</v>
+      </c>
+      <c r="G46">
+        <v>-0.160651477263794</v>
+      </c>
+      <c r="H46">
+        <v>-0.29728673315652998</v>
+      </c>
+      <c r="I46">
+        <v>-2.8046469678825299E-2</v>
+      </c>
+      <c r="J46">
+        <v>-1.38701638543249E-2</v>
+      </c>
+      <c r="K46">
+        <v>0.25399272488817698</v>
+      </c>
+      <c r="L46">
+        <v>0.30052848123429499</v>
+      </c>
+      <c r="M46">
+        <v>-1.6334851208925898E-2</v>
+      </c>
+      <c r="N46" s="20">
+        <v>3</v>
+      </c>
+      <c r="O46" s="20">
+        <v>5</v>
+      </c>
+      <c r="P46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>111</v>
+      </c>
+      <c r="B47">
+        <v>-0.13756333502106599</v>
+      </c>
+      <c r="C47">
+        <v>0.199574326036974</v>
+      </c>
+      <c r="D47">
+        <v>0.49602477745107898</v>
+      </c>
+      <c r="E47">
+        <v>2.2301512774992398E-3</v>
+      </c>
+      <c r="F47">
+        <v>-0.118962851286912</v>
+      </c>
+      <c r="G47">
+        <v>-0.301875951338196</v>
+      </c>
+      <c r="H47">
+        <v>0.26645979913406398</v>
+      </c>
+      <c r="I47">
+        <v>0.37663141915947101</v>
+      </c>
+      <c r="J47">
+        <v>-0.21558678546297499</v>
+      </c>
+      <c r="K47">
+        <v>0.109197245311327</v>
+      </c>
+      <c r="L47">
+        <v>0.44481778473740702</v>
+      </c>
+      <c r="M47">
+        <v>-7.2961032766931E-2</v>
+      </c>
+      <c r="N47" s="20">
+        <v>0</v>
+      </c>
+      <c r="O47" s="20">
+        <v>2</v>
+      </c>
+      <c r="P47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>112</v>
+      </c>
+      <c r="B48">
+        <v>-6.68162920549559E-2</v>
+      </c>
+      <c r="C48">
+        <v>0.30250448177832601</v>
+      </c>
+      <c r="D48">
+        <v>-5.6890414456305299E-2</v>
+      </c>
+      <c r="E48">
+        <v>-7.2085663604105801E-2</v>
+      </c>
+      <c r="F48">
+        <v>0.200408965089484</v>
+      </c>
+      <c r="G48">
+        <v>-9.9250173212107703E-2</v>
+      </c>
+      <c r="H48">
+        <v>-7.1915874516152306E-2</v>
+      </c>
+      <c r="I48">
+        <v>-2.9362441775045899E-2</v>
+      </c>
+      <c r="J48">
+        <v>7.4398124981792596E-3</v>
+      </c>
+      <c r="K48">
+        <v>-1.11076373140416E-3</v>
+      </c>
+      <c r="L48">
+        <v>3.7383868022090601E-2</v>
+      </c>
+      <c r="M48">
+        <v>-9.1194909380334505E-3</v>
+      </c>
+      <c r="N48" s="20">
+        <v>1</v>
+      </c>
+      <c r="O48" s="20">
+        <v>2</v>
+      </c>
+      <c r="P48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>113</v>
+      </c>
+      <c r="B49">
+        <v>-0.145803761717302</v>
+      </c>
+      <c r="C49">
+        <v>0.19208131257902</v>
+      </c>
+      <c r="D49">
+        <v>0.38791661181453202</v>
+      </c>
+      <c r="E49">
+        <v>0.242241171343614</v>
+      </c>
+      <c r="F49">
+        <v>0.12113945961446899</v>
+      </c>
+      <c r="G49">
+        <v>-0.40579876156519301</v>
+      </c>
+      <c r="H49">
+        <v>-0.21223998026698701</v>
+      </c>
+      <c r="I49">
+        <v>0.28457253560217599</v>
+      </c>
+      <c r="J49">
+        <v>-0.12876216893902001</v>
+      </c>
+      <c r="K49">
+        <v>0.23175613212346399</v>
+      </c>
+      <c r="L49">
+        <v>-0.54739258449240202</v>
+      </c>
+      <c r="M49">
+        <v>-0.107280879485935</v>
+      </c>
+      <c r="N49" s="20">
+        <v>0</v>
+      </c>
+      <c r="O49" s="20">
+        <v>0</v>
+      </c>
+      <c r="P49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>114</v>
+      </c>
+      <c r="B50">
+        <v>2.8225151032951101E-2</v>
+      </c>
+      <c r="C50">
+        <v>5.9146695021382603E-2</v>
+      </c>
+      <c r="D50">
+        <v>9.8966028901807798E-4</v>
+      </c>
+      <c r="E50">
+        <v>-3.0708720584987099E-2</v>
+      </c>
+      <c r="F50">
+        <v>-6.0202105715339502E-2</v>
+      </c>
+      <c r="G50">
+        <v>-0.15631947684571901</v>
+      </c>
+      <c r="H50">
+        <v>-0.25242741985537698</v>
+      </c>
+      <c r="I50">
+        <v>7.73358539233562E-3</v>
+      </c>
+      <c r="J50" s="19">
+        <v>3.6139110095870098E-5</v>
+      </c>
+      <c r="K50">
+        <v>-1.3807067674533199E-2</v>
+      </c>
+      <c r="L50">
+        <v>0.50423481119140101</v>
+      </c>
+      <c r="M50">
+        <v>2.2315754265040198E-2</v>
+      </c>
+      <c r="N50" s="20">
+        <v>1</v>
+      </c>
+      <c r="O50" s="20">
+        <v>1</v>
+      </c>
+      <c r="P50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>115</v>
+      </c>
+      <c r="B51">
+        <v>-1.9609130359576E-2</v>
+      </c>
+      <c r="C51">
+        <v>-7.2884709860369906E-2</v>
+      </c>
+      <c r="D51">
+        <v>0.18278040655809699</v>
+      </c>
+      <c r="E51">
+        <v>7.6390178000245001E-2</v>
+      </c>
+      <c r="F51">
+        <v>-9.3576698565898703E-2</v>
+      </c>
+      <c r="G51">
+        <v>-0.17522666198023601</v>
+      </c>
+      <c r="H51">
+        <v>0.286724407589805</v>
+      </c>
+      <c r="I51">
+        <v>3.0178955075421499E-2</v>
+      </c>
+      <c r="J51">
+        <v>-3.4520004957798597E-2</v>
+      </c>
+      <c r="K51">
+        <v>-6.2320877457712497E-2</v>
+      </c>
+      <c r="L51">
+        <v>0.39753668849698098</v>
+      </c>
+      <c r="M51">
+        <v>-0.136494633961664</v>
+      </c>
+      <c r="N51" s="20">
+        <v>0</v>
+      </c>
+      <c r="O51" s="20">
+        <v>0</v>
+      </c>
+      <c r="P51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>116</v>
+      </c>
+      <c r="B52">
+        <v>-0.172018995390881</v>
+      </c>
+      <c r="C52">
+        <v>-0.112167149946324</v>
+      </c>
+      <c r="D52">
+        <v>0.70769240531020705</v>
+      </c>
+      <c r="E52">
+        <v>0.63723695245364498</v>
+      </c>
+      <c r="F52">
+        <v>-0.28443756630467598</v>
+      </c>
+      <c r="G52">
+        <v>-0.33407325385096098</v>
+      </c>
+      <c r="H52">
+        <v>-5.5225968054811801E-2</v>
+      </c>
+      <c r="I52">
+        <v>0.20434351203456499</v>
+      </c>
+      <c r="J52">
+        <v>-5.2434276249638298E-2</v>
+      </c>
+      <c r="K52">
+        <v>0.394096986591017</v>
+      </c>
+      <c r="L52">
+        <v>0.64457022029870004</v>
+      </c>
+      <c r="M52">
+        <v>4.9781930915581397E-2</v>
+      </c>
+      <c r="N52" s="20">
+        <v>0</v>
+      </c>
+      <c r="O52" s="20">
+        <v>2</v>
+      </c>
+      <c r="P52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>117</v>
+      </c>
+      <c r="B53">
+        <v>-0.143116824596975</v>
+      </c>
+      <c r="C53">
+        <v>0.29781136087308502</v>
+      </c>
+      <c r="D53">
+        <v>-0.66827509289646603</v>
+      </c>
+      <c r="E53">
+        <v>-0.213102000095125</v>
+      </c>
+      <c r="F53">
+        <v>-0.38064978820102902</v>
+      </c>
+      <c r="G53">
+        <v>-0.17071590520194499</v>
+      </c>
+      <c r="H53">
+        <v>-0.20994456818558899</v>
+      </c>
+      <c r="I53">
+        <v>-7.5079857853079496E-2</v>
+      </c>
+      <c r="J53">
+        <v>-0.10507824194740099</v>
+      </c>
+      <c r="K53">
+        <v>0.38902903775823899</v>
+      </c>
+      <c r="L53">
+        <v>-0.420550056767721</v>
+      </c>
+      <c r="M53">
+        <v>-1.0355331020822501E-2</v>
+      </c>
+      <c r="N53" s="20">
+        <v>0</v>
+      </c>
+      <c r="O53" s="20">
+        <v>0</v>
+      </c>
+      <c r="P53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>118</v>
+      </c>
+      <c r="B54">
+        <v>0.11871814924665899</v>
+      </c>
+      <c r="C54">
+        <v>0.53716234041696997</v>
+      </c>
+      <c r="D54">
+        <v>0.22348221774195001</v>
+      </c>
+      <c r="E54">
+        <v>1.6408237513143901E-2</v>
+      </c>
+      <c r="F54">
+        <v>-0.34830900028543099</v>
+      </c>
+      <c r="G54">
+        <v>-4.5097236564726202E-2</v>
+      </c>
+      <c r="H54">
+        <v>2.69329457621841E-2</v>
+      </c>
+      <c r="I54">
+        <v>-0.144577241506818</v>
+      </c>
+      <c r="J54">
+        <v>-3.1986645660367498E-2</v>
+      </c>
+      <c r="K54">
+        <v>-1.2206726142192899E-2</v>
+      </c>
+      <c r="L54">
+        <v>8.8584548518406803E-2</v>
+      </c>
+      <c r="M54">
+        <v>1.93117474033289E-3</v>
+      </c>
+      <c r="N54" s="20">
+        <v>1</v>
+      </c>
+      <c r="O54" s="20">
+        <v>1</v>
+      </c>
+      <c r="P54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>119</v>
+      </c>
+      <c r="B55">
+        <v>-7.6625829966511003E-2</v>
+      </c>
+      <c r="C55">
+        <v>9.7185571192523301E-2</v>
+      </c>
+      <c r="D55">
+        <v>-0.142436684837007</v>
+      </c>
+      <c r="E55">
+        <v>-0.14484905253196501</v>
+      </c>
+      <c r="F55">
+        <v>0.22448525659020399</v>
+      </c>
+      <c r="G55">
+        <v>-8.9811686733107604E-2</v>
+      </c>
+      <c r="H55">
+        <v>-0.136880159767787</v>
+      </c>
+      <c r="I55">
+        <v>-3.6336863708620999E-2</v>
+      </c>
+      <c r="J55">
+        <v>2.3615789864530798E-3</v>
+      </c>
+      <c r="K55">
+        <v>0.123141825860678</v>
+      </c>
+      <c r="L55">
+        <v>0.43297918576720801</v>
+      </c>
+      <c r="M55">
+        <v>1.5668569823621699E-2</v>
+      </c>
+      <c r="N55" s="20">
+        <v>4</v>
+      </c>
+      <c r="O55" s="20">
+        <v>7</v>
+      </c>
+      <c r="P55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>120</v>
+      </c>
+      <c r="B56">
+        <v>3.7893718465882201E-2</v>
+      </c>
+      <c r="C56">
+        <v>0.51246757442997803</v>
+      </c>
+      <c r="D56">
+        <v>-7.2488122015404902E-2</v>
+      </c>
+      <c r="E56">
+        <v>4.0482389872302502E-2</v>
+      </c>
+      <c r="F56">
+        <v>-0.17142292681133101</v>
+      </c>
+      <c r="G56">
+        <v>-0.14795113903344301</v>
+      </c>
+      <c r="H56">
+        <v>0.138989772608901</v>
+      </c>
+      <c r="I56">
+        <v>2.9285184099065199E-2</v>
+      </c>
+      <c r="J56">
+        <v>-8.6865743100220001E-3</v>
+      </c>
+      <c r="K56">
+        <v>0.125814417015189</v>
+      </c>
+      <c r="L56">
+        <v>6.5319943485939405E-2</v>
+      </c>
+      <c r="M56">
+        <v>1.5462037741238201E-2</v>
+      </c>
+      <c r="N56" s="20">
+        <v>1</v>
+      </c>
+      <c r="O56" s="20">
+        <v>0</v>
+      </c>
+      <c r="P56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>121</v>
+      </c>
+      <c r="B57">
+        <v>9.1702591198585797E-3</v>
+      </c>
+      <c r="C57">
+        <v>0.28241015937252201</v>
+      </c>
+      <c r="D57">
+        <v>0.21789100504575001</v>
+      </c>
+      <c r="E57">
+        <v>-4.6498386649446296E-3</v>
+      </c>
+      <c r="F57">
+        <v>-0.20949615580914199</v>
+      </c>
+      <c r="G57">
+        <v>-6.08910173975468E-2</v>
+      </c>
+      <c r="H57">
+        <v>-0.1322552566962</v>
+      </c>
+      <c r="I57">
+        <v>-6.1997183563727402E-2</v>
+      </c>
+      <c r="J57">
+        <v>-3.3723425794393198E-2</v>
+      </c>
+      <c r="K57">
+        <v>-7.9748012589016398E-2</v>
+      </c>
+      <c r="L57">
+        <v>0.28465452654446399</v>
+      </c>
+      <c r="M57">
+        <v>2.2851519793426599E-2</v>
+      </c>
+      <c r="N57" s="20">
+        <v>3</v>
+      </c>
+      <c r="O57" s="20">
+        <v>5</v>
+      </c>
+      <c r="P57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>122</v>
+      </c>
+      <c r="B58">
+        <v>-9.8435459751522E-2</v>
+      </c>
+      <c r="C58">
+        <v>5.0056680740048903E-2</v>
+      </c>
+      <c r="D58">
+        <v>0.15102960827822201</v>
+      </c>
+      <c r="E58">
+        <v>-7.6819988184695697E-3</v>
+      </c>
+      <c r="F58" s="19">
+        <v>0.238585389620281</v>
+      </c>
+      <c r="G58">
+        <v>-9.9994907393530702E-2</v>
+      </c>
+      <c r="H58">
+        <v>2.5967368998166901E-2</v>
+      </c>
+      <c r="I58">
+        <v>8.0001709588062395E-2</v>
+      </c>
+      <c r="J58">
+        <v>2.5950898663252599E-2</v>
+      </c>
+      <c r="K58">
+        <v>9.3468328948566798E-2</v>
+      </c>
+      <c r="L58">
+        <v>0.47041341154870697</v>
+      </c>
+      <c r="M58">
+        <v>-3.5347368894379401E-3</v>
+      </c>
+      <c r="N58" s="20">
+        <v>0</v>
+      </c>
+      <c r="O58" s="20">
+        <v>3</v>
+      </c>
+      <c r="P58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>123</v>
+      </c>
+      <c r="B59">
+        <v>-0.162356946974168</v>
+      </c>
+      <c r="C59">
+        <v>6.1098179181425002E-2</v>
+      </c>
+      <c r="D59">
+        <v>0.54687698295156295</v>
+      </c>
+      <c r="E59">
+        <v>0.10631728809122699</v>
+      </c>
+      <c r="F59">
+        <v>-0.25376662167839298</v>
+      </c>
+      <c r="G59">
+        <v>-0.19046262719003099</v>
+      </c>
+      <c r="H59">
+        <v>0.27232890516839398</v>
+      </c>
+      <c r="I59">
+        <v>0.230975081012158</v>
+      </c>
+      <c r="J59">
+        <v>-9.9453740862910103E-2</v>
+      </c>
+      <c r="K59">
+        <v>-0.12759964696724399</v>
+      </c>
+      <c r="L59">
+        <v>0.42891156630966498</v>
+      </c>
+      <c r="M59">
+        <v>-7.7183946117664895E-2</v>
+      </c>
+      <c r="N59" s="20">
+        <v>0</v>
+      </c>
+      <c r="O59" s="20">
+        <v>2</v>
+      </c>
+      <c r="P59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>124</v>
+      </c>
+      <c r="B60">
+        <v>-3.3017517697974098E-2</v>
+      </c>
+      <c r="C60">
+        <v>-0.23260105407122</v>
+      </c>
+      <c r="D60">
+        <v>-0.39512928581301399</v>
+      </c>
+      <c r="E60">
+        <v>0.11225023239936301</v>
+      </c>
+      <c r="F60">
+        <v>-0.124701028597157</v>
+      </c>
+      <c r="G60">
+        <v>-0.188599306865327</v>
+      </c>
+      <c r="H60">
+        <v>-0.219722837021047</v>
+      </c>
+      <c r="I60">
+        <v>-1.52050400470945E-2</v>
+      </c>
+      <c r="J60">
+        <v>-0.16053318043154099</v>
+      </c>
+      <c r="K60">
+        <v>0.16217968548555001</v>
+      </c>
+      <c r="L60">
+        <v>-0.33919376342503199</v>
+      </c>
+      <c r="M60">
+        <v>-8.8096481776103797E-2</v>
+      </c>
+      <c r="N60" s="20">
+        <v>1</v>
+      </c>
+      <c r="O60" s="20">
+        <v>3</v>
+      </c>
+      <c r="P60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>125</v>
+      </c>
+      <c r="B61">
+        <v>-0.157115145056895</v>
+      </c>
+      <c r="C61">
+        <v>0.35149078537321399</v>
+      </c>
+      <c r="D61">
+        <v>0.26718628268043898</v>
+      </c>
+      <c r="E61">
+        <v>-8.4295122871550804E-2</v>
+      </c>
+      <c r="F61">
+        <v>0.23825047762245899</v>
+      </c>
+      <c r="G61">
+        <v>-0.123552350562239</v>
+      </c>
+      <c r="H61">
+        <v>-4.6688090823778401E-2</v>
+      </c>
+      <c r="I61">
+        <v>0.21517153694680499</v>
+      </c>
+      <c r="J61">
+        <v>-6.2972144671288602E-2</v>
+      </c>
+      <c r="K61">
+        <v>-0.17097770147805</v>
+      </c>
+      <c r="L61">
+        <v>-8.4726754434909804E-2</v>
+      </c>
+      <c r="M61">
+        <v>-1.4968103579079101E-2</v>
+      </c>
+      <c r="N61" s="20">
+        <v>4</v>
+      </c>
+      <c r="O61" s="20">
+        <v>4</v>
+      </c>
+      <c r="P61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>126</v>
+      </c>
+      <c r="B62">
+        <v>-0.16722462857010101</v>
+      </c>
+      <c r="C62">
+        <v>0.48080347723809203</v>
+      </c>
+      <c r="D62">
+        <v>0.11456581992992</v>
+      </c>
+      <c r="E62">
+        <v>0.29959376263675502</v>
+      </c>
+      <c r="F62">
+        <v>8.3950543752715406E-2</v>
+      </c>
+      <c r="G62">
+        <v>-0.31710983052219899</v>
+      </c>
+      <c r="H62">
+        <v>-0.101306621274232</v>
+      </c>
+      <c r="I62">
+        <v>4.2928234679897398E-2</v>
+      </c>
+      <c r="J62">
+        <v>3.1904019871871199E-2</v>
+      </c>
+      <c r="K62">
+        <v>0.52173192876729801</v>
+      </c>
+      <c r="L62">
+        <v>-2.0384657944486798E-2</v>
+      </c>
+      <c r="M62">
+        <v>-0.19585763841876599</v>
+      </c>
+      <c r="N62" s="20">
+        <v>0</v>
+      </c>
+      <c r="O62" s="20">
+        <v>1</v>
+      </c>
+      <c r="P62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>127</v>
+      </c>
+      <c r="B63">
+        <v>1.7851046345320601E-2</v>
+      </c>
+      <c r="C63">
+        <v>0.45480103141545902</v>
+      </c>
+      <c r="D63">
+        <v>-0.49029033575721798</v>
+      </c>
+      <c r="E63">
+        <v>-0.71214069282995995</v>
+      </c>
+      <c r="F63">
+        <v>-0.14499228120022001</v>
+      </c>
+      <c r="G63">
+        <v>-5.7783934790000401E-2</v>
+      </c>
+      <c r="H63">
+        <v>-0.34647841259009199</v>
+      </c>
+      <c r="I63">
+        <v>0.16355730882765901</v>
+      </c>
+      <c r="J63">
+        <v>-0.24021082223992499</v>
+      </c>
+      <c r="K63">
+        <v>-0.22041274019479401</v>
+      </c>
+      <c r="L63">
+        <v>0.233619870276527</v>
+      </c>
+      <c r="M63">
+        <v>-0.545246569129059</v>
+      </c>
+      <c r="N63" s="20">
+        <v>1</v>
+      </c>
+      <c r="O63" s="20">
+        <v>2</v>
+      </c>
+      <c r="P63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>128</v>
+      </c>
+      <c r="B64">
+        <v>4.0642591859382397E-2</v>
+      </c>
+      <c r="C64">
+        <v>0.447082050214407</v>
+      </c>
+      <c r="D64">
+        <v>-0.103063416944613</v>
+      </c>
+      <c r="E64">
+        <v>-5.2071951337795103E-2</v>
+      </c>
+      <c r="F64">
+        <v>-0.16605320093786999</v>
+      </c>
+      <c r="G64">
+        <v>-0.16768478107991799</v>
+      </c>
+      <c r="H64">
+        <v>-8.7013271316311994E-2</v>
+      </c>
+      <c r="I64">
+        <v>4.3281733875023501E-2</v>
+      </c>
+      <c r="J64">
+        <v>-3.8683276688350997E-2</v>
+      </c>
+      <c r="K64">
+        <v>0.116932753541653</v>
+      </c>
+      <c r="L64">
+        <v>0.104824697584826</v>
+      </c>
+      <c r="M64">
+        <v>1.15211760332066E-3</v>
+      </c>
+      <c r="N64" s="20">
+        <v>1</v>
+      </c>
+      <c r="O64" s="20">
+        <v>2</v>
+      </c>
+      <c r="P64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>129</v>
+      </c>
+      <c r="B65">
+        <v>-9.48430626519456E-2</v>
+      </c>
+      <c r="C65">
+        <v>0.45563199423996098</v>
+      </c>
+      <c r="D65">
+        <v>-0.59771013442363097</v>
+      </c>
+      <c r="E65">
+        <v>-0.2747650938665</v>
+      </c>
+      <c r="F65">
+        <v>0.215090742945688</v>
+      </c>
+      <c r="G65">
+        <v>-0.25847005195761602</v>
+      </c>
+      <c r="H65">
+        <v>-0.34348181652686399</v>
+      </c>
+      <c r="I65">
+        <v>3.5427777959538401E-2</v>
+      </c>
+      <c r="J65">
+        <v>-0.239085659017503</v>
+      </c>
+      <c r="K65">
+        <v>1.62363558509559E-2</v>
+      </c>
+      <c r="L65">
+        <v>0.59887393943216105</v>
+      </c>
+      <c r="M65">
+        <v>-4.9608916295623501E-2</v>
+      </c>
+      <c r="N65" s="20">
+        <v>0</v>
+      </c>
+      <c r="O65" s="20">
+        <v>1</v>
+      </c>
+      <c r="P65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>130</v>
+      </c>
+      <c r="B66">
+        <v>-0.239218312686441</v>
+      </c>
+      <c r="C66">
+        <v>-5.9546707452843101E-2</v>
+      </c>
+      <c r="D66">
+        <v>0.519279229637435</v>
+      </c>
+      <c r="E66">
+        <v>0.15243199413365799</v>
+      </c>
+      <c r="F66">
+        <v>-0.18113958540980599</v>
+      </c>
+      <c r="G66">
+        <v>-0.27069218112214999</v>
+      </c>
+      <c r="H66">
+        <v>0.240556318616236</v>
+      </c>
+      <c r="I66">
+        <v>0.379446793989205</v>
+      </c>
+      <c r="J66">
+        <v>-0.33035518624453603</v>
+      </c>
+      <c r="K66">
+        <v>-0.10809821438589701</v>
+      </c>
+      <c r="L66">
+        <v>0.44778591499821102</v>
+      </c>
+      <c r="M66">
+        <v>-0.11500309198595</v>
+      </c>
+      <c r="N66" s="20">
+        <v>2</v>
+      </c>
+      <c r="O66" s="20">
+        <v>3</v>
+      </c>
+      <c r="P66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>131</v>
+      </c>
+      <c r="B67">
+        <v>-4.3929595897160299E-2</v>
+      </c>
+      <c r="C67">
+        <v>0.38648966074761398</v>
+      </c>
+      <c r="D67">
+        <v>6.1663033774169297E-2</v>
+      </c>
+      <c r="E67">
+        <v>-4.60131880800167E-3</v>
+      </c>
+      <c r="F67">
+        <v>9.3324428786673796E-2</v>
+      </c>
+      <c r="G67">
+        <v>-0.25878487326482602</v>
+      </c>
+      <c r="H67">
+        <v>-2.86921455741166E-2</v>
+      </c>
+      <c r="I67">
+        <v>5.7220462304198097E-3</v>
+      </c>
+      <c r="J67">
+        <v>1.4234043798467299E-2</v>
+      </c>
+      <c r="K67">
+        <v>0.255475058723519</v>
+      </c>
+      <c r="L67">
+        <v>0.268655898565555</v>
+      </c>
+      <c r="M67">
+        <v>-1.3334027636684899E-2</v>
+      </c>
+      <c r="N67" s="20">
+        <v>0</v>
+      </c>
+      <c r="O67" s="20">
+        <v>2</v>
+      </c>
+      <c r="P67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>132</v>
+      </c>
+      <c r="B68">
+        <v>3.2619627545725498E-2</v>
+      </c>
+      <c r="C68">
+        <v>0.27724306504012902</v>
+      </c>
+      <c r="D68">
+        <v>6.3903137720245903E-2</v>
+      </c>
+      <c r="E68">
+        <v>-8.8499539745278497E-3</v>
+      </c>
+      <c r="F68">
+        <v>-0.101897947428222</v>
+      </c>
+      <c r="G68">
+        <v>-0.10402377513358201</v>
+      </c>
+      <c r="H68">
+        <v>-0.12144813534464501</v>
+      </c>
+      <c r="I68">
+        <v>-1.0678248735987E-2</v>
+      </c>
+      <c r="J68">
+        <v>-9.3013367902652893E-3</v>
+      </c>
+      <c r="K68">
+        <v>3.6388268677274002E-2</v>
+      </c>
+      <c r="L68">
+        <v>0.28659095597970802</v>
+      </c>
+      <c r="M68">
+        <v>-7.2114950347719796E-3</v>
+      </c>
+      <c r="N68" s="20">
+        <v>1</v>
+      </c>
+      <c r="O68" s="20">
+        <v>2</v>
+      </c>
+      <c r="P68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>133</v>
+      </c>
+      <c r="B69">
+        <v>-2.42726622055055E-3</v>
+      </c>
+      <c r="C69">
+        <v>0.166959733873141</v>
+      </c>
+      <c r="D69">
+        <v>9.8386995909539296E-2</v>
+      </c>
+      <c r="E69">
+        <v>-0.22426142743133101</v>
+      </c>
+      <c r="F69">
+        <v>2.5475572011186099E-2</v>
+      </c>
+      <c r="G69">
+        <v>-0.103446513190685</v>
+      </c>
+      <c r="H69">
+        <v>-0.277916624867659</v>
+      </c>
+      <c r="I69">
+        <v>-2.1758586839633401E-2</v>
+      </c>
+      <c r="J69">
+        <v>2.72988509201904E-3</v>
+      </c>
+      <c r="K69">
+        <v>0.30182006059738697</v>
+      </c>
+      <c r="L69">
+        <v>0.40446509945418602</v>
+      </c>
+      <c r="M69">
+        <v>-6.3502420674216006E-2</v>
+      </c>
+      <c r="N69" s="20">
+        <v>2</v>
+      </c>
+      <c r="O69" s="20">
+        <v>4</v>
+      </c>
+      <c r="P69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>134</v>
+      </c>
+      <c r="B70">
+        <v>-0.182799508183457</v>
+      </c>
+      <c r="C70">
+        <v>-0.235941560204256</v>
+      </c>
+      <c r="D70">
+        <v>-0.114741102425837</v>
+      </c>
+      <c r="E70">
+        <v>-0.39207139614952302</v>
+      </c>
+      <c r="F70">
+        <v>9.8530610301987703E-2</v>
+      </c>
+      <c r="G70">
+        <v>-0.31476809571667602</v>
+      </c>
+      <c r="H70">
+        <v>0.32280593592475099</v>
+      </c>
+      <c r="I70">
+        <v>-0.14214083752995499</v>
+      </c>
+      <c r="J70">
+        <v>-1.06318145951485E-2</v>
+      </c>
+      <c r="K70">
+        <v>-3.9425522803906203E-2</v>
+      </c>
+      <c r="L70">
+        <v>0.60261351024911403</v>
+      </c>
+      <c r="M70">
+        <v>-0.16939963727514201</v>
+      </c>
+      <c r="N70" s="20">
+        <v>8</v>
+      </c>
+      <c r="O70" s="20">
+        <v>4</v>
+      </c>
+      <c r="P70">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EA115F8-2F11-9D49-A3BA-1C02AD6F3DEE}">
+  <dimension ref="A1:E70"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2">
+        <v>-0.10229251990459801</v>
+      </c>
+      <c r="C2" s="20">
+        <v>9</v>
+      </c>
+      <c r="D2" s="20">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3">
+        <v>6.1193966039933899E-2</v>
+      </c>
+      <c r="C3" s="20">
+        <v>31</v>
+      </c>
+      <c r="D3" s="20">
+        <v>20</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4">
+        <v>8.0759567184099504E-2</v>
+      </c>
+      <c r="C4" s="20">
+        <v>7</v>
+      </c>
+      <c r="D4" s="20">
+        <v>8</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5">
+        <v>9.31925103266876E-2</v>
+      </c>
+      <c r="C5" s="20">
+        <v>16</v>
+      </c>
+      <c r="D5" s="20">
+        <v>7</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6">
+        <v>0.24127902416668801</v>
+      </c>
+      <c r="C6" s="20">
+        <v>18</v>
+      </c>
+      <c r="D6" s="20">
+        <v>9</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7">
+        <v>-0.115831385631921</v>
+      </c>
+      <c r="C7" s="20">
+        <v>15</v>
+      </c>
+      <c r="D7" s="20">
+        <v>7</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8">
+        <v>8.8211154075942006E-3</v>
+      </c>
+      <c r="C8" s="20">
+        <v>17</v>
+      </c>
+      <c r="D8" s="20">
+        <v>14</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9">
+        <v>-0.26430441618168898</v>
+      </c>
+      <c r="C9" s="20">
+        <v>17</v>
+      </c>
+      <c r="D9" s="20">
+        <v>19</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10">
+        <v>-0.29467344163026399</v>
+      </c>
+      <c r="C10" s="20">
+        <v>16</v>
+      </c>
+      <c r="D10" s="20">
+        <v>6</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11">
+        <v>-3.5912814761489602E-2</v>
+      </c>
+      <c r="C11" s="20">
+        <v>28</v>
+      </c>
+      <c r="D11" s="20">
+        <v>14</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12">
+        <v>3.9035688539164802E-2</v>
+      </c>
+      <c r="C12" s="20">
+        <v>16</v>
+      </c>
+      <c r="D12" s="20">
+        <v>7</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13">
+        <v>0.14111953009976</v>
+      </c>
+      <c r="C13" s="20">
+        <v>16</v>
+      </c>
+      <c r="D13" s="20">
+        <v>6</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14">
+        <v>9.5960567734575897E-2</v>
+      </c>
+      <c r="C14" s="20">
+        <v>33</v>
+      </c>
+      <c r="D14" s="20">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>79</v>
+      </c>
+      <c r="B15">
+        <v>9.1964291244544891E-3</v>
+      </c>
+      <c r="C15" s="20">
+        <v>27</v>
+      </c>
+      <c r="D15" s="20">
+        <v>15</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16">
+        <v>0.35084438626933601</v>
+      </c>
+      <c r="C16" s="20">
+        <v>20</v>
+      </c>
+      <c r="D16" s="20">
+        <v>7</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>81</v>
+      </c>
+      <c r="B17">
+        <v>-9.6544903859151002E-2</v>
+      </c>
+      <c r="C17" s="20">
+        <v>13</v>
+      </c>
+      <c r="D17" s="20">
+        <v>3</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>82</v>
+      </c>
+      <c r="B18">
+        <v>-0.13891436909864599</v>
+      </c>
+      <c r="C18" s="20">
+        <v>14</v>
+      </c>
+      <c r="D18" s="20">
+        <v>9</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19">
+        <v>-5.7492387904379703E-4</v>
+      </c>
+      <c r="C19" s="20">
+        <v>22</v>
+      </c>
+      <c r="D19" s="20">
+        <v>13</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>84</v>
+      </c>
+      <c r="B20">
+        <v>-3.22939116067604E-2</v>
+      </c>
+      <c r="C20" s="20">
+        <v>18</v>
+      </c>
+      <c r="D20" s="20">
+        <v>9</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>85</v>
+      </c>
+      <c r="B21">
+        <v>6.59362368960762E-3</v>
+      </c>
+      <c r="C21" s="20">
+        <v>20</v>
+      </c>
+      <c r="D21" s="20">
+        <v>16</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>86</v>
+      </c>
+      <c r="B22">
+        <v>1.65037878630336E-3</v>
+      </c>
+      <c r="C22" s="20">
+        <v>2</v>
+      </c>
+      <c r="D22" s="20">
+        <v>9</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>87</v>
+      </c>
+      <c r="B23">
+        <v>0.16465271672121501</v>
+      </c>
+      <c r="C23" s="20">
+        <v>6</v>
+      </c>
+      <c r="D23" s="20">
+        <v>7</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>88</v>
+      </c>
+      <c r="B24">
+        <v>2.45962579719181E-3</v>
+      </c>
+      <c r="C24" s="20">
+        <v>5</v>
+      </c>
+      <c r="D24" s="20">
+        <v>3</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>89</v>
+      </c>
+      <c r="B25">
+        <v>0.34910454555088599</v>
+      </c>
+      <c r="C25" s="20">
+        <v>12</v>
+      </c>
+      <c r="D25" s="20">
+        <v>7</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>90</v>
+      </c>
+      <c r="B26">
+        <v>-3.4061039772651597E-2</v>
+      </c>
+      <c r="C26" s="20">
+        <v>10</v>
+      </c>
+      <c r="D26" s="20">
+        <v>6</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>91</v>
+      </c>
+      <c r="B27">
+        <v>-1.28458002819498E-2</v>
+      </c>
+      <c r="C27" s="20">
+        <v>10</v>
+      </c>
+      <c r="D27" s="20">
+        <v>7</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>92</v>
+      </c>
+      <c r="B28">
+        <v>-2.5143706291417101E-2</v>
+      </c>
+      <c r="C28" s="20">
+        <v>7</v>
+      </c>
+      <c r="D28" s="20">
+        <v>2</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>93</v>
+      </c>
+      <c r="B29">
+        <v>-5.8979007093697397E-2</v>
+      </c>
+      <c r="C29" s="20">
+        <v>19</v>
+      </c>
+      <c r="D29" s="20">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>94</v>
+      </c>
+      <c r="B30">
+        <v>-2.4578881000125102E-2</v>
+      </c>
+      <c r="C30" s="20">
+        <v>10</v>
+      </c>
+      <c r="D30" s="20">
+        <v>2</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>95</v>
+      </c>
+      <c r="B31">
+        <v>-0.21995609107004699</v>
+      </c>
+      <c r="C31" s="20">
+        <v>8</v>
+      </c>
+      <c r="D31" s="20">
+        <v>2</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>96</v>
+      </c>
+      <c r="B32">
+        <v>0.12437485064309001</v>
+      </c>
+      <c r="C32" s="20">
+        <v>29</v>
+      </c>
+      <c r="D32" s="20">
+        <v>26</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>97</v>
+      </c>
+      <c r="B33">
+        <v>-6.6148302503472506E-2</v>
+      </c>
+      <c r="C33" s="20">
+        <v>6</v>
+      </c>
+      <c r="D33" s="20">
+        <v>10</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>98</v>
+      </c>
+      <c r="B34">
+        <v>7.1635183407676897E-2</v>
+      </c>
+      <c r="C34" s="20">
+        <v>0</v>
+      </c>
+      <c r="D34" s="20">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>99</v>
+      </c>
+      <c r="B35">
+        <v>-7.7779499203625702E-2</v>
+      </c>
+      <c r="C35" s="20">
+        <v>0</v>
+      </c>
+      <c r="D35" s="20">
+        <v>3</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>100</v>
+      </c>
+      <c r="B36">
+        <v>-0.15906235270594199</v>
+      </c>
+      <c r="C36" s="20">
+        <v>3</v>
+      </c>
+      <c r="D36" s="20">
+        <v>3</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>101</v>
+      </c>
+      <c r="B37">
+        <v>-0.15154611019240599</v>
+      </c>
+      <c r="C37" s="20">
+        <v>1</v>
+      </c>
+      <c r="D37" s="20">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>102</v>
+      </c>
+      <c r="B38">
+        <v>-3.72231183470089E-2</v>
+      </c>
+      <c r="C38" s="20">
+        <v>0</v>
+      </c>
+      <c r="D38" s="20">
+        <v>6</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>103</v>
+      </c>
+      <c r="B39">
+        <v>-9.5191339087171492E-3</v>
+      </c>
+      <c r="C39" s="20">
+        <v>1</v>
+      </c>
+      <c r="D39" s="20">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>104</v>
+      </c>
+      <c r="B40">
+        <v>-3.3239344010617199E-2</v>
+      </c>
+      <c r="C40" s="20">
+        <v>2</v>
+      </c>
+      <c r="D40" s="20">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>105</v>
+      </c>
+      <c r="B41">
+        <v>-2.2695268887689801E-2</v>
+      </c>
+      <c r="C41" s="20">
+        <v>0</v>
+      </c>
+      <c r="D41" s="20">
+        <v>2</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>106</v>
+      </c>
+      <c r="B42">
+        <v>-5.5265451756409997E-2</v>
+      </c>
+      <c r="C42" s="20">
+        <v>0</v>
+      </c>
+      <c r="D42" s="20">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>107</v>
+      </c>
+      <c r="B43">
+        <v>-2.6538506024551999E-2</v>
+      </c>
+      <c r="C43" s="20">
+        <v>0</v>
+      </c>
+      <c r="D43" s="20">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>108</v>
+      </c>
+      <c r="B44">
+        <v>-0.212693779800426</v>
+      </c>
+      <c r="C44" s="20">
+        <v>3</v>
+      </c>
+      <c r="D44" s="20">
+        <v>2</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>109</v>
+      </c>
+      <c r="B45">
+        <v>-0.23435838349440599</v>
+      </c>
+      <c r="C45" s="20">
+        <v>1</v>
+      </c>
+      <c r="D45" s="20">
+        <v>3</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>110</v>
+      </c>
+      <c r="B46">
+        <v>-1.6334851208925898E-2</v>
+      </c>
+      <c r="C46" s="20">
+        <v>3</v>
+      </c>
+      <c r="D46" s="20">
+        <v>5</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>111</v>
+      </c>
+      <c r="B47">
+        <v>-7.2961032766931E-2</v>
+      </c>
+      <c r="C47" s="20">
+        <v>0</v>
+      </c>
+      <c r="D47" s="20">
+        <v>2</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>112</v>
+      </c>
+      <c r="B48">
+        <v>-9.1194909380334505E-3</v>
+      </c>
+      <c r="C48" s="20">
+        <v>1</v>
+      </c>
+      <c r="D48" s="20">
+        <v>2</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>113</v>
+      </c>
+      <c r="B49">
+        <v>-0.107280879485935</v>
+      </c>
+      <c r="C49" s="20">
+        <v>0</v>
+      </c>
+      <c r="D49" s="20">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>114</v>
+      </c>
+      <c r="B50">
+        <v>2.2315754265040198E-2</v>
+      </c>
+      <c r="C50" s="20">
+        <v>1</v>
+      </c>
+      <c r="D50" s="20">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>115</v>
+      </c>
+      <c r="B51">
+        <v>-0.136494633961664</v>
+      </c>
+      <c r="C51" s="20">
+        <v>0</v>
+      </c>
+      <c r="D51" s="20">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>116</v>
+      </c>
+      <c r="B52">
+        <v>4.9781930915581397E-2</v>
+      </c>
+      <c r="C52" s="20">
+        <v>0</v>
+      </c>
+      <c r="D52" s="20">
+        <v>2</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>117</v>
+      </c>
+      <c r="B53">
+        <v>-1.0355331020822501E-2</v>
+      </c>
+      <c r="C53" s="20">
+        <v>0</v>
+      </c>
+      <c r="D53" s="20">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>118</v>
+      </c>
+      <c r="B54">
+        <v>1.93117474033289E-3</v>
+      </c>
+      <c r="C54" s="20">
+        <v>1</v>
+      </c>
+      <c r="D54" s="20">
+        <v>1</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>119</v>
+      </c>
+      <c r="B55">
+        <v>1.5668569823621699E-2</v>
+      </c>
+      <c r="C55" s="20">
+        <v>4</v>
+      </c>
+      <c r="D55" s="20">
+        <v>7</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>120</v>
+      </c>
+      <c r="B56">
+        <v>1.5462037741238201E-2</v>
+      </c>
+      <c r="C56" s="20">
+        <v>1</v>
+      </c>
+      <c r="D56" s="20">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>121</v>
+      </c>
+      <c r="B57">
+        <v>2.2851519793426599E-2</v>
+      </c>
+      <c r="C57" s="20">
+        <v>3</v>
+      </c>
+      <c r="D57" s="20">
+        <v>5</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>122</v>
+      </c>
+      <c r="B58">
+        <v>-3.5347368894379401E-3</v>
+      </c>
+      <c r="C58" s="20">
+        <v>0</v>
+      </c>
+      <c r="D58" s="20">
+        <v>3</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>123</v>
+      </c>
+      <c r="B59">
+        <v>-7.7183946117664895E-2</v>
+      </c>
+      <c r="C59" s="20">
+        <v>0</v>
+      </c>
+      <c r="D59" s="20">
+        <v>2</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>124</v>
+      </c>
+      <c r="B60">
+        <v>-8.8096481776103797E-2</v>
+      </c>
+      <c r="C60" s="20">
+        <v>1</v>
+      </c>
+      <c r="D60" s="20">
+        <v>3</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>125</v>
+      </c>
+      <c r="B61">
+        <v>-1.4968103579079101E-2</v>
+      </c>
+      <c r="C61" s="20">
+        <v>4</v>
+      </c>
+      <c r="D61" s="20">
+        <v>4</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>126</v>
+      </c>
+      <c r="B62">
+        <v>-0.19585763841876599</v>
+      </c>
+      <c r="C62" s="20">
+        <v>0</v>
+      </c>
+      <c r="D62" s="20">
+        <v>1</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>127</v>
+      </c>
+      <c r="B63">
+        <v>-0.545246569129059</v>
+      </c>
+      <c r="C63" s="20">
+        <v>1</v>
+      </c>
+      <c r="D63" s="20">
+        <v>2</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>128</v>
+      </c>
+      <c r="B64">
+        <v>1.15211760332066E-3</v>
+      </c>
+      <c r="C64" s="20">
+        <v>1</v>
+      </c>
+      <c r="D64" s="20">
+        <v>2</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>129</v>
+      </c>
+      <c r="B65">
+        <v>-4.9608916295623501E-2</v>
+      </c>
+      <c r="C65" s="20">
+        <v>0</v>
+      </c>
+      <c r="D65" s="20">
+        <v>1</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>130</v>
+      </c>
+      <c r="B66">
+        <v>-0.11500309198595</v>
+      </c>
+      <c r="C66" s="20">
+        <v>2</v>
+      </c>
+      <c r="D66" s="20">
+        <v>3</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>131</v>
+      </c>
+      <c r="B67">
+        <v>-1.3334027636684899E-2</v>
+      </c>
+      <c r="C67" s="20">
+        <v>0</v>
+      </c>
+      <c r="D67" s="20">
+        <v>2</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>132</v>
+      </c>
+      <c r="B68">
+        <v>-7.2114950347719796E-3</v>
+      </c>
+      <c r="C68" s="20">
+        <v>1</v>
+      </c>
+      <c r="D68" s="20">
+        <v>2</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>133</v>
+      </c>
+      <c r="B69">
+        <v>-6.3502420674216006E-2</v>
+      </c>
+      <c r="C69" s="20">
+        <v>2</v>
+      </c>
+      <c r="D69" s="20">
+        <v>4</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>134</v>
+      </c>
+      <c r="B70">
+        <v>-0.16939963727514201</v>
+      </c>
+      <c r="C70" s="20">
+        <v>8</v>
+      </c>
+      <c r="D70" s="20">
+        <v>4</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A28944A1-5A25-9D43-AE0C-08E82C47F947}">
   <dimension ref="A1:D70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12364,12 +17117,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AA3B617-35D1-2946-AFA0-B7ED3D33F59D}">
   <dimension ref="A1:AB70"/>
   <sheetViews>
-    <sheetView topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="AC17" sqref="AC17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
